--- a/학사관리_샘플데이터/샘플-데이터-제1정규화(.xlsx
+++ b/학사관리_샘플데이터/샘플-데이터-제1정규화(.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="653">
   <si>
     <t>학번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1790,6 +1790,307 @@
   <si>
     <t>S0020</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s0002</t>
+  </si>
+  <si>
+    <t>s0003</t>
+  </si>
+  <si>
+    <t>s0004</t>
+  </si>
+  <si>
+    <t>s0005</t>
+  </si>
+  <si>
+    <t>s0006</t>
+  </si>
+  <si>
+    <t>s0007</t>
+  </si>
+  <si>
+    <t>s0008</t>
+  </si>
+  <si>
+    <t>s0009</t>
+  </si>
+  <si>
+    <t>s0010</t>
+  </si>
+  <si>
+    <t>s0011</t>
+  </si>
+  <si>
+    <t>s0012</t>
+  </si>
+  <si>
+    <t>s0013</t>
+  </si>
+  <si>
+    <t>s0014</t>
+  </si>
+  <si>
+    <t>s0015</t>
+  </si>
+  <si>
+    <t>s0016</t>
+  </si>
+  <si>
+    <t>s0017</t>
+  </si>
+  <si>
+    <t>s0018</t>
+  </si>
+  <si>
+    <t>s0019</t>
+  </si>
+  <si>
+    <t>s0020</t>
+  </si>
+  <si>
+    <t>s0021</t>
+  </si>
+  <si>
+    <t>s0022</t>
+  </si>
+  <si>
+    <t>s0023</t>
+  </si>
+  <si>
+    <t>s0024</t>
+  </si>
+  <si>
+    <t>s0025</t>
+  </si>
+  <si>
+    <t>s0026</t>
+  </si>
+  <si>
+    <t>s0027</t>
+  </si>
+  <si>
+    <t>s0028</t>
+  </si>
+  <si>
+    <t>s0029</t>
+  </si>
+  <si>
+    <t>s0030</t>
+  </si>
+  <si>
+    <t>s0031</t>
+  </si>
+  <si>
+    <t>s0032</t>
+  </si>
+  <si>
+    <t>s0033</t>
+  </si>
+  <si>
+    <t>s0034</t>
+  </si>
+  <si>
+    <t>s0035</t>
+  </si>
+  <si>
+    <t>s0036</t>
+  </si>
+  <si>
+    <t>s0037</t>
+  </si>
+  <si>
+    <t>s0038</t>
+  </si>
+  <si>
+    <t>s0039</t>
+  </si>
+  <si>
+    <t>s0040</t>
+  </si>
+  <si>
+    <t>s0041</t>
+  </si>
+  <si>
+    <t>s0042</t>
+  </si>
+  <si>
+    <t>s0043</t>
+  </si>
+  <si>
+    <t>s0044</t>
+  </si>
+  <si>
+    <t>s0045</t>
+  </si>
+  <si>
+    <t>s0046</t>
+  </si>
+  <si>
+    <t>s0047</t>
+  </si>
+  <si>
+    <t>s0048</t>
+  </si>
+  <si>
+    <t>s0049</t>
+  </si>
+  <si>
+    <t>s0050</t>
+  </si>
+  <si>
+    <t>s0051</t>
+  </si>
+  <si>
+    <t>s0052</t>
+  </si>
+  <si>
+    <t>s0053</t>
+  </si>
+  <si>
+    <t>s0054</t>
+  </si>
+  <si>
+    <t>s0055</t>
+  </si>
+  <si>
+    <t>s0056</t>
+  </si>
+  <si>
+    <t>s0057</t>
+  </si>
+  <si>
+    <t>s0058</t>
+  </si>
+  <si>
+    <t>s0059</t>
+  </si>
+  <si>
+    <t>s0060</t>
+  </si>
+  <si>
+    <t>s0061</t>
+  </si>
+  <si>
+    <t>s0062</t>
+  </si>
+  <si>
+    <t>s0063</t>
+  </si>
+  <si>
+    <t>s0064</t>
+  </si>
+  <si>
+    <t>s0065</t>
+  </si>
+  <si>
+    <t>s0066</t>
+  </si>
+  <si>
+    <t>s0067</t>
+  </si>
+  <si>
+    <t>s0068</t>
+  </si>
+  <si>
+    <t>s0069</t>
+  </si>
+  <si>
+    <t>s0070</t>
+  </si>
+  <si>
+    <t>s0071</t>
+  </si>
+  <si>
+    <t>s0072</t>
+  </si>
+  <si>
+    <t>s0073</t>
+  </si>
+  <si>
+    <t>s0074</t>
+  </si>
+  <si>
+    <t>s0075</t>
+  </si>
+  <si>
+    <t>s0076</t>
+  </si>
+  <si>
+    <t>s0077</t>
+  </si>
+  <si>
+    <t>s0078</t>
+  </si>
+  <si>
+    <t>s0079</t>
+  </si>
+  <si>
+    <t>s0080</t>
+  </si>
+  <si>
+    <t>s0081</t>
+  </si>
+  <si>
+    <t>s0082</t>
+  </si>
+  <si>
+    <t>s0083</t>
+  </si>
+  <si>
+    <t>s0084</t>
+  </si>
+  <si>
+    <t>s0085</t>
+  </si>
+  <si>
+    <t>s0086</t>
+  </si>
+  <si>
+    <t>s0087</t>
+  </si>
+  <si>
+    <t>s0088</t>
+  </si>
+  <si>
+    <t>s0089</t>
+  </si>
+  <si>
+    <t>s0090</t>
+  </si>
+  <si>
+    <t>s0091</t>
+  </si>
+  <si>
+    <t>s0092</t>
+  </si>
+  <si>
+    <t>s0093</t>
+  </si>
+  <si>
+    <t>s0094</t>
+  </si>
+  <si>
+    <t>s0095</t>
+  </si>
+  <si>
+    <t>s0096</t>
+  </si>
+  <si>
+    <t>s0097</t>
+  </si>
+  <si>
+    <t>s0098</t>
+  </si>
+  <si>
+    <t>s0099</t>
+  </si>
+  <si>
+    <t>s0100</t>
   </si>
 </sst>
 </file>
@@ -2082,7 +2383,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AFE27EF-43B7-4808-99EA-AE410A6D5ED9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFE27EF-43B7-4808-99EA-AE410A6D5ED9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,7 +2444,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2B7F705-6773-49A6-B920-B47F42BEFA80}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B7F705-6773-49A6-B920-B47F42BEFA80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,8 +2755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2496,14 +2797,14 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>214</v>
+        <v>553</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-7479-8661</v>
+        <v>010-3674-7003</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>314</v>
@@ -2525,14 +2826,14 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>215</v>
+        <v>554</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="0">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-1127-4736</v>
+        <v>010-4836-6701</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>315</v>
@@ -2554,14 +2855,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>216</v>
+        <v>555</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6788-8380</v>
+        <v>010-4864-0485</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>348</v>
@@ -2583,14 +2884,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>217</v>
+        <v>556</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3414-7986</v>
+        <v>010-7111-2025</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>349</v>
@@ -2612,14 +2913,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>218</v>
+        <v>557</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4503-6730</v>
+        <v>010-2383-7052</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>316</v>
@@ -2641,14 +2942,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>219</v>
+        <v>558</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8979-0513</v>
+        <v>010-7753-0503</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>317</v>
@@ -2670,14 +2971,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>220</v>
+        <v>559</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9105-7622</v>
+        <v>010-2677-4716</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>344</v>
@@ -2699,14 +3000,14 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>221</v>
+        <v>560</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4039-5355</v>
+        <v>010-1762-3144</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>318</v>
@@ -2728,14 +3029,14 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>222</v>
+        <v>561</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5580-3168</v>
+        <v>010-9717-9281</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>319</v>
@@ -2757,14 +3058,14 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>223</v>
+        <v>562</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6897-3144</v>
+        <v>010-1079-3687</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>346</v>
@@ -2786,14 +3087,14 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>224</v>
+        <v>563</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4302-5261</v>
+        <v>010-8806-8880</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>347</v>
@@ -2815,14 +3116,14 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>225</v>
+        <v>564</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3957-7163</v>
+        <v>010-9184-8198</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>320</v>
@@ -2844,14 +3145,14 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>226</v>
+        <v>565</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3690-1516</v>
+        <v>010-5957-4935</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>350</v>
@@ -2873,14 +3174,14 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>227</v>
+        <v>566</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3312-2582</v>
+        <v>010-2828-9501</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>321</v>
@@ -2902,14 +3203,14 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>228</v>
+        <v>567</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8656-9753</v>
+        <v>010-3684-6050</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>322</v>
@@ -2931,14 +3232,14 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>229</v>
+        <v>568</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9301-1512</v>
+        <v>010-3071-4262</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>323</v>
@@ -2960,14 +3261,14 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>230</v>
+        <v>569</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2566-9482</v>
+        <v>010-6751-0068</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>345</v>
@@ -2989,14 +3290,14 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>231</v>
+        <v>570</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6305-9747</v>
+        <v>010-3094-8391</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>351</v>
@@ -3018,14 +3319,14 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>232</v>
+        <v>571</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8971-3156</v>
+        <v>010-4090-0711</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>352</v>
@@ -3047,14 +3348,14 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>233</v>
+        <v>572</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7203-2012</v>
+        <v>010-3853-0245</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>353</v>
@@ -3076,14 +3377,14 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>234</v>
+        <v>573</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8667-7971</v>
+        <v>010-1739-5495</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>354</v>
@@ -3105,14 +3406,14 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>235</v>
+        <v>574</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1885-7520</v>
+        <v>010-8007-8239</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>355</v>
@@ -3134,14 +3435,14 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>236</v>
+        <v>575</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6838-3887</v>
+        <v>010-3539-9839</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>324</v>
@@ -3163,14 +3464,14 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>237</v>
+        <v>576</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1754-2634</v>
+        <v>010-5449-9899</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>325</v>
@@ -3192,14 +3493,14 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>238</v>
+        <v>577</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7054-2659</v>
+        <v>010-7647-0090</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>326</v>
@@ -3221,14 +3522,14 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>239</v>
+        <v>578</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3313-1490</v>
+        <v>010-7387-9207</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>356</v>
@@ -3250,14 +3551,14 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>240</v>
+        <v>579</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7419-6153</v>
+        <v>010-7799-7299</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>357</v>
@@ -3279,14 +3580,14 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>241</v>
+        <v>580</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9610-1374</v>
+        <v>010-4305-3018</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>358</v>
@@ -3308,14 +3609,14 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>242</v>
+        <v>581</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5087-2973</v>
+        <v>010-5431-3883</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>327</v>
@@ -3337,14 +3638,14 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>243</v>
+        <v>582</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1341-0404</v>
+        <v>010-5872-2423</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>328</v>
@@ -3366,14 +3667,14 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>244</v>
+        <v>583</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7413-6557</v>
+        <v>010-9961-2518</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>359</v>
@@ -3395,14 +3696,14 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>245</v>
+        <v>584</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7631-8161</v>
+        <v>010-2020-3715</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>329</v>
@@ -3424,14 +3725,14 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>246</v>
+        <v>585</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2493-8674</v>
+        <v>010-1308-3343</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>330</v>
@@ -3453,14 +3754,14 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>247</v>
+        <v>586</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6346-0711</v>
+        <v>010-9024-1983</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>331</v>
@@ -3482,14 +3783,14 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>248</v>
+        <v>587</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1996-8033</v>
+        <v>010-6907-7422</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>332</v>
@@ -3511,14 +3812,14 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>249</v>
+        <v>588</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8233-7318</v>
+        <v>010-9298-2774</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>333</v>
@@ -3540,14 +3841,14 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>250</v>
+        <v>589</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6027-9140</v>
+        <v>010-4120-0445</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>360</v>
@@ -3569,14 +3870,14 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>251</v>
+        <v>590</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9528-7957</v>
+        <v>010-9962-6424</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>361</v>
@@ -3598,14 +3899,14 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>252</v>
+        <v>591</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3186-0395</v>
+        <v>010-6240-8433</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>362</v>
@@ -3627,14 +3928,14 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>253</v>
+        <v>592</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8482-9402</v>
+        <v>010-4583-5615</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>363</v>
@@ -3656,14 +3957,14 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>254</v>
+        <v>593</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4685-2326</v>
+        <v>010-5221-0286</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>334</v>
@@ -3685,14 +3986,14 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>255</v>
+        <v>594</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6740-0047</v>
+        <v>010-5450-8665</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>335</v>
@@ -3714,14 +4015,14 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>256</v>
+        <v>595</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3679-7866</v>
+        <v>010-9537-8103</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>336</v>
@@ -3743,14 +4044,14 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>257</v>
+        <v>596</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4720-8292</v>
+        <v>010-6403-0010</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>337</v>
@@ -3772,14 +4073,14 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>258</v>
+        <v>597</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6350-9832</v>
+        <v>010-9970-6873</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>364</v>
@@ -3801,14 +4102,14 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>259</v>
+        <v>598</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7052-7803</v>
+        <v>010-2921-7535</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>365</v>
@@ -3830,14 +4131,14 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>260</v>
+        <v>599</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1165-5868</v>
+        <v>010-4753-0295</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>366</v>
@@ -3859,14 +4160,14 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>261</v>
+        <v>600</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4496-4687</v>
+        <v>010-2082-0188</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>367</v>
@@ -3888,14 +4189,14 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>262</v>
+        <v>601</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6696-8137</v>
+        <v>010-7599-5021</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>338</v>
@@ -3917,14 +4218,14 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>263</v>
+        <v>602</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6298-7623</v>
+        <v>010-8554-6205</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>339</v>
@@ -3946,14 +4247,14 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>264</v>
+        <v>603</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>52</v>
       </c>
       <c r="C52" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1351-1994</v>
+        <v>010-8409-8390</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>340</v>
@@ -3975,14 +4276,14 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>265</v>
+        <v>604</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C53" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8359-4059</v>
+        <v>010-3447-5740</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>341</v>
@@ -4004,14 +4305,14 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>266</v>
+        <v>605</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C54" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6946-9404</v>
+        <v>010-7024-4436</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>368</v>
@@ -4033,14 +4334,14 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>267</v>
+        <v>606</v>
       </c>
       <c r="B55" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C55" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3916-6765</v>
+        <v>010-6587-0175</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>369</v>
@@ -4062,14 +4363,14 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>268</v>
+        <v>607</v>
       </c>
       <c r="B56" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1950-4039</v>
+        <v>010-8133-9349</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>342</v>
@@ -4091,14 +4392,14 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>269</v>
+        <v>608</v>
       </c>
       <c r="B57" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6641-2930</v>
+        <v>010-4325-3910</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>370</v>
@@ -4120,14 +4421,14 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>270</v>
+        <v>609</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1126-5287</v>
+        <v>010-7184-0681</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>343</v>
@@ -4149,14 +4450,14 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>271</v>
+        <v>610</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8283-3983</v>
+        <v>010-7699-7864</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>371</v>
@@ -4178,14 +4479,14 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>272</v>
+        <v>611</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>60</v>
       </c>
       <c r="C60" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2423-4631</v>
+        <v>010-6974-3058</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>372</v>
@@ -4207,14 +4508,14 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>273</v>
+        <v>612</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C61" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7546-3293</v>
+        <v>010-6497-2303</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>373</v>
@@ -4236,14 +4537,14 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>274</v>
+        <v>613</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6720-6813</v>
+        <v>010-5345-2970</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>404</v>
@@ -4265,14 +4566,14 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>275</v>
+        <v>614</v>
       </c>
       <c r="B63" s="19" t="s">
         <v>63</v>
       </c>
       <c r="C63" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9798-2858</v>
+        <v>010-7546-7172</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>374</v>
@@ -4294,14 +4595,14 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>276</v>
+        <v>615</v>
       </c>
       <c r="B64" s="19" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5418-7245</v>
+        <v>010-5886-6554</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>375</v>
@@ -4323,14 +4624,14 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>277</v>
+        <v>616</v>
       </c>
       <c r="B65" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C65" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3513-5233</v>
+        <v>010-9619-7222</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>376</v>
@@ -4352,14 +4653,14 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>278</v>
+        <v>617</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>66</v>
       </c>
       <c r="C66" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2336-4593</v>
+        <v>010-5660-7752</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>377</v>
@@ -4381,14 +4682,14 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>279</v>
+        <v>618</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>67</v>
       </c>
       <c r="C67" s="5" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="1">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-7716-5787</v>
+        <v>010-7190-8420</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>378</v>
@@ -4410,14 +4711,14 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>280</v>
+        <v>619</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9374-1234</v>
+        <v>010-2559-7360</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>379</v>
@@ -4439,14 +4740,14 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>281</v>
+        <v>620</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>69</v>
       </c>
       <c r="C69" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5698-0803</v>
+        <v>010-2373-1236</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>405</v>
@@ -4468,14 +4769,14 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>282</v>
+        <v>621</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>70</v>
       </c>
       <c r="C70" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8989-9637</v>
+        <v>010-4832-6498</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>380</v>
@@ -4497,14 +4798,14 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>283</v>
+        <v>622</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>71</v>
       </c>
       <c r="C71" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3373-1107</v>
+        <v>010-7925-0905</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>406</v>
@@ -4526,14 +4827,14 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>284</v>
+        <v>623</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C72" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7710-4682</v>
+        <v>010-9948-5173</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>381</v>
@@ -4555,14 +4856,14 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>285</v>
+        <v>624</v>
       </c>
       <c r="B73" s="19" t="s">
         <v>73</v>
       </c>
       <c r="C73" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4956-0113</v>
+        <v>010-3681-9859</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>382</v>
@@ -4584,14 +4885,14 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>286</v>
+        <v>625</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C74" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3442-1249</v>
+        <v>010-6508-4797</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>383</v>
@@ -4613,14 +4914,14 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>287</v>
+        <v>626</v>
       </c>
       <c r="B75" s="19" t="s">
         <v>75</v>
       </c>
       <c r="C75" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4164-9510</v>
+        <v>010-6398-1194</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>384</v>
@@ -4642,14 +4943,14 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>288</v>
+        <v>627</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C76" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8911-8834</v>
+        <v>010-1565-8048</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>407</v>
@@ -4671,14 +4972,14 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>289</v>
+        <v>628</v>
       </c>
       <c r="B77" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C77" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9568-9045</v>
+        <v>010-7150-0914</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>408</v>
@@ -4700,14 +5001,14 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>290</v>
+        <v>629</v>
       </c>
       <c r="B78" s="19" t="s">
         <v>78</v>
       </c>
       <c r="C78" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9130-0369</v>
+        <v>010-7194-3218</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>385</v>
@@ -4729,14 +5030,14 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>291</v>
+        <v>630</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C79" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3556-0049</v>
+        <v>010-9394-9335</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>386</v>
@@ -4758,14 +5059,14 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>292</v>
+        <v>631</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>80</v>
       </c>
       <c r="C80" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1610-2747</v>
+        <v>010-3933-0182</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>409</v>
@@ -4787,14 +5088,14 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>293</v>
+        <v>632</v>
       </c>
       <c r="B81" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C81" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9870-9731</v>
+        <v>010-7037-7305</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>387</v>
@@ -4816,14 +5117,14 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>294</v>
+        <v>633</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C82" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7106-8480</v>
+        <v>010-6036-8276</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>410</v>
@@ -4845,14 +5146,14 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>295</v>
+        <v>634</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C83" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4480-2465</v>
+        <v>010-5582-7364</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>388</v>
@@ -4874,14 +5175,14 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>296</v>
+        <v>635</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>84</v>
       </c>
       <c r="C84" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6978-7632</v>
+        <v>010-7908-7643</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>389</v>
@@ -4903,14 +5204,14 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>297</v>
+        <v>636</v>
       </c>
       <c r="B85" s="19" t="s">
         <v>85</v>
       </c>
       <c r="C85" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7929-8787</v>
+        <v>010-3803-9050</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>390</v>
@@ -4932,14 +5233,14 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>298</v>
+        <v>637</v>
       </c>
       <c r="B86" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C86" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7456-0562</v>
+        <v>010-6962-5794</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>391</v>
@@ -4961,14 +5262,14 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>299</v>
+        <v>638</v>
       </c>
       <c r="B87" s="19" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8540-1167</v>
+        <v>010-7407-2261</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>392</v>
@@ -4990,14 +5291,14 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>300</v>
+        <v>639</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>88</v>
       </c>
       <c r="C88" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6499-4062</v>
+        <v>010-7121-5233</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>411</v>
@@ -5019,14 +5320,14 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>301</v>
+        <v>640</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>89</v>
       </c>
       <c r="C89" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4997-7837</v>
+        <v>010-4278-2083</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>393</v>
@@ -5048,14 +5349,14 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>302</v>
+        <v>641</v>
       </c>
       <c r="B90" s="19" t="s">
         <v>90</v>
       </c>
       <c r="C90" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7677-2789</v>
+        <v>010-9336-0617</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>394</v>
@@ -5077,14 +5378,14 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>303</v>
+        <v>642</v>
       </c>
       <c r="B91" s="19" t="s">
         <v>91</v>
       </c>
       <c r="C91" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6152-2051</v>
+        <v>010-6946-9005</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>395</v>
@@ -5106,14 +5407,14 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>304</v>
+        <v>643</v>
       </c>
       <c r="B92" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C92" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9050-7522</v>
+        <v>010-6820-7820</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>396</v>
@@ -5135,14 +5436,14 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>305</v>
+        <v>644</v>
       </c>
       <c r="B93" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C93" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7709-2240</v>
+        <v>010-3398-5537</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>397</v>
@@ -5164,14 +5465,14 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>306</v>
+        <v>645</v>
       </c>
       <c r="B94" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C94" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6227-9289</v>
+        <v>010-1154-7556</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>398</v>
@@ -5193,14 +5494,14 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>307</v>
+        <v>646</v>
       </c>
       <c r="B95" s="19" t="s">
         <v>95</v>
       </c>
       <c r="C95" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5363-4427</v>
+        <v>010-3239-2088</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>412</v>
@@ -5222,14 +5523,14 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>308</v>
+        <v>647</v>
       </c>
       <c r="B96" s="19" t="s">
         <v>96</v>
       </c>
       <c r="C96" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9542-3050</v>
+        <v>010-9884-8779</v>
       </c>
       <c r="D96" s="15" t="s">
         <v>413</v>
@@ -5251,14 +5552,14 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>309</v>
+        <v>648</v>
       </c>
       <c r="B97" s="19" t="s">
         <v>97</v>
       </c>
       <c r="C97" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1756-7387</v>
+        <v>010-8537-3250</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>399</v>
@@ -5280,14 +5581,14 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>310</v>
+        <v>649</v>
       </c>
       <c r="B98" s="19" t="s">
         <v>98</v>
       </c>
       <c r="C98" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9166-4744</v>
+        <v>010-1110-9002</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>400</v>
@@ -5309,14 +5610,14 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>311</v>
+        <v>650</v>
       </c>
       <c r="B99" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C99" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4351-1825</v>
+        <v>010-2939-6948</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>401</v>
@@ -5338,14 +5639,14 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>312</v>
+        <v>651</v>
       </c>
       <c r="B100" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C100" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2719-0528</v>
+        <v>010-1053-4513</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>402</v>
@@ -5366,15 +5667,15 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
-        <v>313</v>
+      <c r="A101" s="4" t="s">
+        <v>652</v>
       </c>
       <c r="B101" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C101" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4018-4568</v>
+        <v>010-5495-9983</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>403</v>
@@ -5399,7 +5700,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A101 F2:F101" numberStoredAsText="1"/>
+    <ignoredError sqref="F2:F101" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5409,7 +5710,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5552,7 +5853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
@@ -15445,35 +15746,35 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:I22" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:I17" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="J2">
         <f ca="1">SUM(C2:E2)</f>
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="K2">
         <f ca="1">ROUND(AVERAGE(C2:E2),0)</f>
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -15485,39 +15786,39 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:I23" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J21" ca="1" si="3">SUM(C3:E3)</f>
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K21" ca="1" si="4">ROUND(AVERAGE(C3:E3),0)</f>
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -15529,39 +15830,39 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="3"/>
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -15573,19 +15874,19 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
@@ -15593,19 +15894,19 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="3"/>
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -15617,39 +15918,39 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="3"/>
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -15661,39 +15962,39 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="3"/>
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -15705,39 +16006,39 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="3"/>
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -15749,35 +16050,35 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="3"/>
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="4"/>
@@ -15793,39 +16094,39 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="3"/>
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -15837,39 +16138,39 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="3"/>
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -15881,39 +16182,39 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="3"/>
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -15925,39 +16226,39 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="3"/>
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -15969,39 +16270,39 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="3"/>
-        <v>265</v>
+        <v>180</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -16013,39 +16314,39 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="3"/>
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -16057,39 +16358,39 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="3"/>
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -16101,39 +16402,39 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="3"/>
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -16145,39 +16446,39 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="3"/>
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -16189,27 +16490,27 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="0"/>
@@ -16217,11 +16518,11 @@
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="3"/>
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -16233,11 +16534,11 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
@@ -16245,27 +16546,27 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="3"/>
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -16277,39 +16578,39 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="3"/>
-        <v>251</v>
+        <v>177</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -16321,39 +16622,39 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="J22">
         <f t="shared" ref="J22:J85" ca="1" si="5">SUM(C22:E22)</f>
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="K22">
         <f t="shared" ref="K22:K85" ca="1" si="6">ROUND(AVERAGE(C22:E22),0)</f>
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -16365,39 +16666,39 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="5"/>
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -16409,39 +16710,39 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:I87" ca="1" si="7">RANDBETWEEN(50,100)</f>
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="5"/>
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -16453,39 +16754,39 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="5"/>
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -16497,39 +16798,39 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="5"/>
-        <v>257</v>
+        <v>187</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -16541,39 +16842,39 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="5"/>
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -16589,31 +16890,31 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="5"/>
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
@@ -16629,39 +16930,39 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="5"/>
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -16673,39 +16974,39 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="5"/>
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -16717,7 +17018,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="7"/>
@@ -16725,31 +17026,31 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="5"/>
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -16761,39 +17062,39 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="5"/>
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -16805,39 +17106,39 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="5"/>
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -16849,23 +17150,23 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="7"/>
@@ -16873,15 +17174,15 @@
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="5"/>
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -16893,39 +17194,39 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="5"/>
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -16937,39 +17238,39 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="H36">
         <f t="shared" ref="F36:I99" ca="1" si="8">RANDBETWEEN(50,100)</f>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="5"/>
-        <v>224</v>
+        <v>295</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -16981,31 +17282,31 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E37">
         <f t="shared" ref="E37:I100" ca="1" si="9">RANDBETWEEN(50,100)</f>
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="5"/>
@@ -17025,39 +17326,39 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="9"/>
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ca="1" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ca="1" si="8"/>
         <v>99</v>
       </c>
-      <c r="G38">
-        <f t="shared" ca="1" si="8"/>
-        <v>92</v>
-      </c>
-      <c r="H38">
-        <f t="shared" ca="1" si="8"/>
-        <v>50</v>
-      </c>
       <c r="I38">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="5"/>
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -17069,39 +17370,39 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="9"/>
+        <v>98</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="8"/>
+        <v>53</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="8"/>
+        <v>87</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="8"/>
         <v>88</v>
-      </c>
-      <c r="F39">
-        <f t="shared" ca="1" si="8"/>
-        <v>99</v>
-      </c>
-      <c r="G39">
-        <f t="shared" ca="1" si="8"/>
-        <v>71</v>
-      </c>
-      <c r="H39">
-        <f t="shared" ca="1" si="8"/>
-        <v>79</v>
-      </c>
-      <c r="I39">
-        <f t="shared" ca="1" si="8"/>
-        <v>82</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="5"/>
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -17113,39 +17414,39 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="9"/>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="5"/>
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -17157,39 +17458,39 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="9"/>
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="5"/>
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -17201,39 +17502,39 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="9"/>
+        <v>83</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="8"/>
+        <v>53</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="8"/>
         <v>91</v>
       </c>
-      <c r="F42">
-        <f t="shared" ca="1" si="8"/>
-        <v>62</v>
-      </c>
-      <c r="G42">
+      <c r="H42">
         <f t="shared" ca="1" si="8"/>
         <v>57</v>
       </c>
-      <c r="H42">
-        <f t="shared" ca="1" si="8"/>
-        <v>55</v>
-      </c>
       <c r="I42">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="5"/>
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -17245,39 +17546,39 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="5"/>
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -17289,39 +17590,39 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="9"/>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="5"/>
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -17333,39 +17634,39 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="5"/>
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -17377,39 +17678,39 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="9"/>
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="5"/>
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -17421,27 +17722,27 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="9"/>
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="8"/>
@@ -17449,11 +17750,11 @@
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="5"/>
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -17465,39 +17766,39 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="9"/>
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="5"/>
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -17509,39 +17810,39 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="9"/>
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="5"/>
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -17553,39 +17854,39 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="9"/>
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="5"/>
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -17597,39 +17898,39 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="9"/>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="5"/>
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -17641,39 +17942,39 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="5"/>
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -17685,39 +17986,39 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="9"/>
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="5"/>
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -17729,39 +18030,39 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="5"/>
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -17773,39 +18074,39 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="9"/>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="5"/>
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -17817,39 +18118,39 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="5"/>
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -17861,23 +18162,23 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="8"/>
@@ -17905,7 +18206,7 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="7"/>
@@ -17913,31 +18214,31 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="5"/>
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -17949,39 +18250,39 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="5"/>
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -17993,39 +18294,39 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="9"/>
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="5"/>
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -18037,39 +18338,39 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="9"/>
+        <v>87</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="8"/>
+        <v>74</v>
+      </c>
+      <c r="G61">
+        <f t="shared" ca="1" si="8"/>
+        <v>83</v>
+      </c>
+      <c r="H61">
+        <f t="shared" ca="1" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="I61">
+        <f t="shared" ca="1" si="8"/>
         <v>58</v>
-      </c>
-      <c r="F61">
-        <f t="shared" ca="1" si="8"/>
-        <v>86</v>
-      </c>
-      <c r="G61">
-        <f t="shared" ca="1" si="8"/>
-        <v>57</v>
-      </c>
-      <c r="H61">
-        <f t="shared" ca="1" si="8"/>
-        <v>95</v>
-      </c>
-      <c r="I61">
-        <f t="shared" ca="1" si="8"/>
-        <v>79</v>
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="5"/>
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -18081,39 +18382,39 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="9"/>
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="5"/>
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -18125,39 +18426,39 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="5"/>
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -18169,39 +18470,39 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="9"/>
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="5"/>
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -18213,23 +18514,23 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="9"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="8"/>
@@ -18237,15 +18538,15 @@
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="5"/>
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -18257,31 +18558,31 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="5"/>
@@ -18301,39 +18602,39 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="5"/>
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -18345,39 +18646,39 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="5"/>
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -18389,39 +18690,39 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="5"/>
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -18433,39 +18734,39 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="9"/>
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="5"/>
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -18477,39 +18778,39 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="9"/>
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="5"/>
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -18521,39 +18822,39 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="5"/>
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -18565,39 +18866,39 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="5"/>
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -18609,39 +18910,39 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="9"/>
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="5"/>
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -18653,39 +18954,39 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="5"/>
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -18697,39 +18998,39 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="5"/>
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -18741,39 +19042,39 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="9"/>
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J77">
         <f t="shared" ca="1" si="5"/>
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="K77">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -18785,39 +19086,39 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="9"/>
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="J78">
         <f t="shared" ca="1" si="5"/>
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="K78">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -18829,39 +19130,39 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="9"/>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="J79">
         <f t="shared" ca="1" si="5"/>
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -18873,39 +19174,39 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="9"/>
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="J80">
         <f t="shared" ca="1" si="5"/>
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="K80">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -18917,39 +19218,39 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J81">
         <f t="shared" ca="1" si="5"/>
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="K81">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -18961,39 +19262,39 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="J82">
         <f t="shared" ca="1" si="5"/>
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="K82">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -19005,39 +19306,39 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ca="1" si="8"/>
         <v>54</v>
       </c>
-      <c r="F83">
-        <f t="shared" ca="1" si="8"/>
-        <v>55</v>
-      </c>
-      <c r="G83">
-        <f t="shared" ca="1" si="8"/>
-        <v>63</v>
-      </c>
       <c r="H83">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J83">
         <f t="shared" ca="1" si="5"/>
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="K83">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -19049,19 +19350,19 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="9"/>
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="8"/>
@@ -19069,19 +19370,19 @@
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="J84">
         <f t="shared" ca="1" si="5"/>
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -19093,39 +19394,39 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="G85">
+        <f t="shared" ca="1" si="8"/>
+        <v>96</v>
+      </c>
+      <c r="H85">
+        <f t="shared" ca="1" si="8"/>
+        <v>79</v>
+      </c>
+      <c r="I85">
+        <f t="shared" ca="1" si="8"/>
         <v>80</v>
-      </c>
-      <c r="G85">
-        <f t="shared" ca="1" si="8"/>
-        <v>93</v>
-      </c>
-      <c r="H85">
-        <f t="shared" ca="1" si="8"/>
-        <v>83</v>
-      </c>
-      <c r="I85">
-        <f t="shared" ca="1" si="8"/>
-        <v>69</v>
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="5"/>
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="K85">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -19137,39 +19438,39 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J86">
         <f t="shared" ref="J86:J101" ca="1" si="10">SUM(C86:E86)</f>
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="K86">
         <f t="shared" ref="K86:K101" ca="1" si="11">ROUND(AVERAGE(C86:E86),0)</f>
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -19181,39 +19482,39 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="10"/>
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="K87">
         <f t="shared" ca="1" si="11"/>
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -19225,11 +19526,11 @@
       </c>
       <c r="C88">
         <f t="shared" ref="C88:I101" ca="1" si="12">RANDBETWEEN(50,100)</f>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="12"/>
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="9"/>
@@ -19237,27 +19538,27 @@
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="10"/>
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K88">
         <f t="shared" ca="1" si="11"/>
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -19269,39 +19570,39 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="12"/>
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="12"/>
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="9"/>
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="10"/>
-        <v>276</v>
+        <v>187</v>
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="11"/>
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -19313,39 +19614,39 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="12"/>
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="9"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="H90">
+        <f t="shared" ca="1" si="8"/>
         <v>75</v>
       </c>
-      <c r="H90">
-        <f t="shared" ca="1" si="8"/>
-        <v>72</v>
-      </c>
       <c r="I90">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="J90">
         <f t="shared" ca="1" si="10"/>
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="K90">
         <f t="shared" ca="1" si="11"/>
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -19357,39 +19658,39 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="12"/>
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="12"/>
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="9"/>
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="J91">
         <f t="shared" ca="1" si="10"/>
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="K91">
         <f t="shared" ca="1" si="11"/>
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -19401,39 +19702,39 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="12"/>
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="9"/>
+        <v>76</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="8"/>
+        <v>62</v>
+      </c>
+      <c r="G92">
+        <f t="shared" ca="1" si="8"/>
         <v>95</v>
       </c>
-      <c r="F92">
-        <f t="shared" ca="1" si="8"/>
-        <v>84</v>
-      </c>
-      <c r="G92">
-        <f t="shared" ca="1" si="8"/>
-        <v>91</v>
-      </c>
       <c r="H92">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J92">
         <f t="shared" ca="1" si="10"/>
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="11"/>
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -19445,39 +19746,39 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="12"/>
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="12"/>
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="9"/>
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J93">
         <f t="shared" ca="1" si="10"/>
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="K93">
         <f t="shared" ca="1" si="11"/>
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -19489,39 +19790,39 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="12"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="12"/>
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="9"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="I94">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="J94">
         <f t="shared" ca="1" si="10"/>
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="K94">
         <f t="shared" ca="1" si="11"/>
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -19533,39 +19834,39 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="12"/>
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="12"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="9"/>
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="10"/>
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="K95">
         <f t="shared" ca="1" si="11"/>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -19577,39 +19878,39 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="12"/>
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="12"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="9"/>
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="J96">
         <f t="shared" ca="1" si="10"/>
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="K96">
         <f t="shared" ca="1" si="11"/>
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -19621,39 +19922,39 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="12"/>
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="12"/>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="9"/>
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="J97">
         <f t="shared" ca="1" si="10"/>
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K97">
         <f t="shared" ca="1" si="11"/>
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -19665,39 +19966,39 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="12"/>
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="12"/>
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="9"/>
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="10"/>
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="11"/>
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -19709,39 +20010,39 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="12"/>
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="12"/>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="9"/>
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="J99">
         <f t="shared" ca="1" si="10"/>
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="K99">
         <f t="shared" ca="1" si="11"/>
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -19753,39 +20054,39 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="12"/>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="12"/>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="9"/>
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="9"/>
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="9"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="9"/>
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="J100">
         <f t="shared" ca="1" si="10"/>
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="K100">
         <f t="shared" ca="1" si="11"/>
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -19797,39 +20098,39 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="12"/>
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="12"/>
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="12"/>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="12"/>
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="12"/>
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="12"/>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I101">
         <f t="shared" ca="1" si="12"/>
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="J101">
         <f t="shared" ca="1" si="10"/>
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="K101">
         <f t="shared" ca="1" si="11"/>
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -19884,23 +20185,23 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:E22" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <f ca="1">SUM(C2:E2)</f>
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G2">
         <f ca="1">ROUND(AVERAGE(C2:E2),0)</f>
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -19912,23 +20213,23 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:E23" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" ca="1" si="2">SUM(C3:E3)</f>
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="3">ROUND(AVERAGE(C3:E3),0)</f>
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -19940,7 +20241,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
@@ -19948,15 +20249,15 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -19968,23 +20269,23 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>266</v>
+        <v>186</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -19996,23 +20297,23 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -20024,19 +20325,19 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
@@ -20052,23 +20353,23 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -20080,23 +20381,23 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -20108,23 +20409,23 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -20136,23 +20437,23 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -20164,23 +20465,23 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>184</v>
+        <v>251</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -20192,23 +20493,23 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -20220,23 +20521,23 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -20248,23 +20549,23 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -20276,23 +20577,23 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -20304,23 +20605,23 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -20332,23 +20633,23 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>203</v>
+        <v>268</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -20360,23 +20661,23 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -20388,23 +20689,23 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -20416,23 +20717,23 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -20444,19 +20745,19 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="3"/>
@@ -20472,23 +20773,23 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -20500,23 +20801,23 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:E60" ca="1" si="4">RANDBETWEEN(50,100)</f>
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -20528,23 +20829,23 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -20556,7 +20857,7 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="4"/>
@@ -20564,15 +20865,15 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -20584,23 +20885,23 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -20612,23 +20913,23 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -20640,23 +20941,23 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -20668,23 +20969,23 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -20696,23 +20997,23 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -20724,23 +21025,23 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -20752,23 +21053,23 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -20780,23 +21081,23 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -20808,23 +21109,23 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="2"/>
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -20836,23 +21137,23 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="2"/>
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -20864,23 +21165,23 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="2"/>
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -20892,23 +21193,23 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="2"/>
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -20920,23 +21221,23 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="2"/>
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -20948,23 +21249,23 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -20976,23 +21277,23 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="2"/>
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -21004,23 +21305,23 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="2"/>
-        <v>205</v>
+        <v>283</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -21032,23 +21333,23 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -21060,23 +21361,23 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="2"/>
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -21088,23 +21389,23 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="2"/>
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -21116,23 +21417,23 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="2"/>
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -21144,23 +21445,23 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -21172,23 +21473,23 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="2"/>
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -21200,23 +21501,23 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -21228,23 +21529,23 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="2"/>
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -21256,23 +21557,23 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -21284,11 +21585,11 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
@@ -21296,11 +21597,11 @@
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -21312,23 +21613,23 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="2"/>
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -21340,23 +21641,23 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="2"/>
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -21368,23 +21669,23 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -21396,23 +21697,23 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="2"/>
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -21424,23 +21725,23 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="2"/>
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -21452,23 +21753,23 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="2"/>
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -21480,23 +21781,23 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="2"/>
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -21508,23 +21809,23 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="2"/>
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -21536,23 +21837,23 @@
       </c>
       <c r="C61">
         <f t="shared" ref="C61:E101" ca="1" si="5">RANDBETWEEN(50,100)</f>
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="2"/>
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -21564,23 +21865,23 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="2"/>
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -21592,23 +21893,23 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="2"/>
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -21620,23 +21921,23 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="2"/>
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -21648,23 +21949,23 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="2"/>
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -21676,23 +21977,23 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="2"/>
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -21704,23 +22005,23 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F101" ca="1" si="6">SUM(C67:E67)</f>
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G101" ca="1" si="7">ROUND(AVERAGE(C67:E67),0)</f>
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -21732,23 +22033,23 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="6"/>
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -21760,23 +22061,23 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="6"/>
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -21788,11 +22089,11 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
@@ -21800,11 +22101,11 @@
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="6"/>
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -21816,23 +22117,23 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="6"/>
-        <v>274</v>
+        <v>166</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -21844,23 +22145,23 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="6"/>
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -21872,23 +22173,23 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="6"/>
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -21900,23 +22201,23 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="6"/>
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -21928,23 +22229,23 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="6"/>
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -21956,23 +22257,23 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="6"/>
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -21984,23 +22285,23 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="6"/>
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -22016,19 +22317,19 @@
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="6"/>
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -22040,23 +22341,23 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="6"/>
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -22068,23 +22369,23 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="6"/>
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -22096,23 +22397,23 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="6"/>
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -22124,23 +22425,23 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="6"/>
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -22152,23 +22453,23 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="6"/>
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -22180,23 +22481,23 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="6"/>
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -22208,23 +22509,23 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="6"/>
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -22236,23 +22537,23 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="6"/>
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -22264,7 +22565,7 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="5"/>
@@ -22272,15 +22573,15 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="6"/>
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -22292,23 +22593,23 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="6"/>
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -22320,23 +22621,23 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="6"/>
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -22348,19 +22649,19 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="6"/>
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="7"/>
@@ -22376,23 +22677,23 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="6"/>
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -22404,23 +22705,23 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="6"/>
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -22432,23 +22733,23 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="6"/>
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -22460,23 +22761,23 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="6"/>
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -22488,23 +22789,23 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="6"/>
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -22516,23 +22817,23 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="6"/>
-        <v>250</v>
+        <v>162</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -22544,23 +22845,23 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="6"/>
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -22572,23 +22873,23 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="6"/>
-        <v>203</v>
+        <v>259</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -22600,23 +22901,23 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="6"/>
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -22628,23 +22929,23 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="6"/>
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -22656,23 +22957,23 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="6"/>
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
